--- a/spurningar.xlsx
+++ b/spurningar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingolfur\Documents\GitHub\Alor-test-env\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC42148-55EA-4727-BD55-901F2D5BAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B220F7-D986-42A9-BCEA-6B986379F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6716975B-B3BC-4E2F-A103-B6B34F0E8088}"/>
+    <workbookView xWindow="14070" yWindow="0" windowWidth="14730" windowHeight="15600" activeTab="2" xr2:uid="{6716975B-B3BC-4E2F-A103-B6B34F0E8088}"/>
   </bookViews>
   <sheets>
     <sheet name=" Constants and Presupposition" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="213">
   <si>
     <t>kr/kwh</t>
   </si>
@@ -692,6 +692,39 @@
   <si>
     <t>ln(315.4668/100)/26</t>
   </si>
+  <si>
+    <t>setup (1kWh)</t>
+  </si>
+  <si>
+    <t>setup (5kWh)</t>
+  </si>
+  <si>
+    <t>5kWh batteries</t>
+  </si>
+  <si>
+    <t>1kWh batteries</t>
+  </si>
+  <si>
+    <t>2*5kWh + 1*turbines - PV</t>
+  </si>
+  <si>
+    <t>mixed setup ( combined 10000W PV and turbine)</t>
+  </si>
+  <si>
+    <t>7*1kWh + 1*turbines - PV</t>
+  </si>
+  <si>
+    <t>5*1kWh + 1*turbines - generator - PV</t>
+  </si>
+  <si>
+    <t>15*1kWh + 1*turbines - generator - PV</t>
+  </si>
+  <si>
+    <t>1*5kWh + 1*turbines</t>
+  </si>
+  <si>
+    <t>6*5kWh + 1*turbines - PV</t>
+  </si>
 </sst>
 </file>
 
@@ -702,7 +735,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +758,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +792,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -765,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -831,12 +878,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="158">
+  <dxfs count="168">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3590,15 +3673,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8FB1AFDC-DA59-4BFF-AC82-28756351CDD6}" name="Table11" displayName="Table11" ref="S2:V6" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8FB1AFDC-DA59-4BFF-AC82-28756351CDD6}" name="Table11" displayName="Table11" ref="S2:V6" totalsRowCount="1" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="S2:V5" xr:uid="{8FB1AFDC-DA59-4BFF-AC82-28756351CDD6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FC5BE521-8465-4B6E-AD8C-6F929A6B5A70}" name="Watts" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{3E37388E-F637-4C53-B2CB-99ECB79CFCEA}" name="iskr" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{74155645-9E6C-448F-88AD-A793DEB4207E}" name="usd" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="1" xr3:uid="{FC5BE521-8465-4B6E-AD8C-6F929A6B5A70}" name="Watts" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{3E37388E-F637-4C53-B2CB-99ECB79CFCEA}" name="iskr" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{74155645-9E6C-448F-88AD-A793DEB4207E}" name="usd" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula>T3/131.35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2D190DD4-0424-4930-94F2-577B018BFD6A}" name="usd/W" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="4" xr3:uid="{2D190DD4-0424-4930-94F2-577B018BFD6A}" name="usd/W" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="158">
       <totalsRowFormula>AVERAGE(Table11[usd/W])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -3607,131 +3690,131 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6B0E6524-B18A-49F4-AA01-40D4517DEBB3}" name="Table139" displayName="Table139" ref="G23:I26" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6B0E6524-B18A-49F4-AA01-40D4517DEBB3}" name="Table139" displayName="Table139" ref="G23:I26" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="G23:I26" xr:uid="{6B0E6524-B18A-49F4-AA01-40D4517DEBB3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{72520B54-342F-4515-A966-7C638A21C463}" name="usage (kWh)" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{FD8C8210-42F4-4CA7-9529-EDF4CCD998A4}" name="battery (kWh)" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{8F19C7E9-8E5A-4E04-8F5B-E8566C3E3CB4}" name="spend (L/year)" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{72520B54-342F-4515-A966-7C638A21C463}" name="usage (kWh)" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{FD8C8210-42F4-4CA7-9529-EDF4CCD998A4}" name="battery (kWh)" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{8F19C7E9-8E5A-4E04-8F5B-E8566C3E3CB4}" name="spend (L/year)" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{45CC11CF-7712-4177-A45A-25E7A78A97E9}" name="Table1410" displayName="Table1410" ref="K23:M26" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{45CC11CF-7712-4177-A45A-25E7A78A97E9}" name="Table1410" displayName="Table1410" ref="K23:M26" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="K23:M26" xr:uid="{45CC11CF-7712-4177-A45A-25E7A78A97E9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{211686E8-32FE-44BA-99AB-695A0BA44B10}" name="usage (kWh)" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{9D5D11BC-65D4-427F-91FC-AD4EF75C6A3E}" name="battery (kWh)" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{7600CD46-6EAF-4B26-AC23-2870BBF47DE2}" name="spend (L/year)" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{211686E8-32FE-44BA-99AB-695A0BA44B10}" name="usage (kWh)" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{9D5D11BC-65D4-427F-91FC-AD4EF75C6A3E}" name="battery (kWh)" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{7600CD46-6EAF-4B26-AC23-2870BBF47DE2}" name="spend (L/year)" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1336DF61-34B3-479E-8AC6-B786187B93D9}" name="Table114" displayName="Table114" ref="B10:D13" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1336DF61-34B3-479E-8AC6-B786187B93D9}" name="Table114" displayName="Table114" ref="B10:D13" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="B10:D13" xr:uid="{1336DF61-34B3-479E-8AC6-B786187B93D9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{05A9D59B-7C44-4E67-8EB0-9AFD951AFB7E}" name="usage (kWh)" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{A52EACC8-BE9A-486F-95B0-D918E5A79FA2}" name="battery (kWh)" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{20F6A512-F62C-439B-85A0-B20BE368054A}" name="spend (L/year)" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{05A9D59B-7C44-4E67-8EB0-9AFD951AFB7E}" name="usage (kWh)" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{A52EACC8-BE9A-486F-95B0-D918E5A79FA2}" name="battery (kWh)" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{20F6A512-F62C-439B-85A0-B20BE368054A}" name="spend (L/year)" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{903287ED-DC26-43EE-8308-F54DF63108E6}" name="Table1315" displayName="Table1315" ref="B16:D19" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{903287ED-DC26-43EE-8308-F54DF63108E6}" name="Table1315" displayName="Table1315" ref="B16:D19" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="B16:D19" xr:uid="{903287ED-DC26-43EE-8308-F54DF63108E6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{002622EF-6F88-4B87-9861-DAF7A5F593BC}" name="usage (kWh)" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{AB78E625-17E2-4D2C-BA8F-F71085633110}" name="battery (kWh)" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{FE74C7E2-E9EE-45E1-9592-0F0A8B11CB60}" name="spend (L/year)" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{002622EF-6F88-4B87-9861-DAF7A5F593BC}" name="usage (kWh)" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{AB78E625-17E2-4D2C-BA8F-F71085633110}" name="battery (kWh)" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{FE74C7E2-E9EE-45E1-9592-0F0A8B11CB60}" name="spend (L/year)" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5B809C15-AB52-4971-A2C6-91862FAB1BB1}" name="Table1416" displayName="Table1416" ref="B22:D25" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5B809C15-AB52-4971-A2C6-91862FAB1BB1}" name="Table1416" displayName="Table1416" ref="B22:D25" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B22:D25" xr:uid="{5B809C15-AB52-4971-A2C6-91862FAB1BB1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A4E04CD-7DF6-430C-842B-26F024CE7DDB}" name="usage (kWh)" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{E06C3D0C-ECF0-459A-B4E6-8CF4F98FC89F}" name="battery (kWh)" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{B621399B-67FC-45A4-95ED-A1155D7EE03C}" name="spend (L/year)" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{1A4E04CD-7DF6-430C-842B-26F024CE7DDB}" name="usage (kWh)" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{E06C3D0C-ECF0-459A-B4E6-8CF4F98FC89F}" name="battery (kWh)" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{B621399B-67FC-45A4-95ED-A1155D7EE03C}" name="spend (L/year)" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A2249AEB-34FB-4E46-9F09-19765E25319F}" name="Table141624" displayName="Table141624" ref="B28:D31" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A2249AEB-34FB-4E46-9F09-19765E25319F}" name="Table141624" displayName="Table141624" ref="B28:D31" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="B28:D31" xr:uid="{A2249AEB-34FB-4E46-9F09-19765E25319F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77738879-DFA1-40A1-9EA0-847631EC42AE}" name="usage (kWh)" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{95FC2DCD-AA2F-4736-8A2D-ADDB24BD9CAC}" name="battery (kWh)" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{828489AE-A503-4AAB-9EDD-948472252EAF}" name="spend (L/year)" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{77738879-DFA1-40A1-9EA0-847631EC42AE}" name="usage (kWh)" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{95FC2DCD-AA2F-4736-8A2D-ADDB24BD9CAC}" name="battery (kWh)" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{828489AE-A503-4AAB-9EDD-948472252EAF}" name="spend (L/year)" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2D2B17F1-8045-4801-A1E4-203E6E05389D}" name="Table141625" displayName="Table141625" ref="B34:D37" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2D2B17F1-8045-4801-A1E4-203E6E05389D}" name="Table141625" displayName="Table141625" ref="B34:D37" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="B34:D37" xr:uid="{2D2B17F1-8045-4801-A1E4-203E6E05389D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{04775794-16A5-4639-B904-471CF6925C6C}" name="usage (kWh)" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{67D5A6C9-29BF-42CD-A655-13F1E04F4669}" name="battery (kWh)" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{E385FD26-808F-4E44-9467-8C0F4BEC4B1D}" name="spend (L/year)" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{04775794-16A5-4639-B904-471CF6925C6C}" name="usage (kWh)" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{67D5A6C9-29BF-42CD-A655-13F1E04F4669}" name="battery (kWh)" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{E385FD26-808F-4E44-9467-8C0F4BEC4B1D}" name="spend (L/year)" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1B9823C7-203E-43B5-A07F-63E77CEDCBB2}" name="Table141626" displayName="Table141626" ref="B40:D43" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1B9823C7-203E-43B5-A07F-63E77CEDCBB2}" name="Table141626" displayName="Table141626" ref="B40:D43" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B40:D43" xr:uid="{1B9823C7-203E-43B5-A07F-63E77CEDCBB2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE419846-645C-4DD5-B21E-502BB2776A07}" name="usage (kWh)" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{C4EABFE3-148E-484D-BF10-46D7841B817D}" name="battery (kWh)" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{CDAB66EE-ED54-4A0D-8837-BE12532891A2}" name="spend (L/year)" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{AE419846-645C-4DD5-B21E-502BB2776A07}" name="usage (kWh)" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{C4EABFE3-148E-484D-BF10-46D7841B817D}" name="battery (kWh)" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{CDAB66EE-ED54-4A0D-8837-BE12532891A2}" name="spend (L/year)" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{186E09DA-840B-4DFA-8FF9-D68CD67EAD88}" name="Table34" displayName="Table34" ref="G10:H13" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{186E09DA-840B-4DFA-8FF9-D68CD67EAD88}" name="Table34" displayName="Table34" ref="G10:H13" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="G10:H13" xr:uid="{186E09DA-840B-4DFA-8FF9-D68CD67EAD88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3DAB9D4D-6B53-41F8-935F-2702030078DA}" name="battery (1kWh)" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{F8549732-33A8-48DD-93CA-4986E9CA6806}" name="spend (L/year)" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{3DAB9D4D-6B53-41F8-935F-2702030078DA}" name="battery (1kWh)" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{F8549732-33A8-48DD-93CA-4986E9CA6806}" name="spend (L/year)" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{30CCCBF7-A9A7-47FA-B5B1-4E15147D3BFE}" name="Table35" displayName="Table35" ref="J10:K13" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{30CCCBF7-A9A7-47FA-B5B1-4E15147D3BFE}" name="Table35" displayName="Table35" ref="J10:K13" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="J10:K13" xr:uid="{30CCCBF7-A9A7-47FA-B5B1-4E15147D3BFE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F8FF0976-0CE1-41AA-9026-958E8371A6E8}" name="battery (5kWh)" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{DDC64AC4-F1BD-4A26-BCFE-D4E6EC0E8626}" name="spend (L/year)" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{F8FF0976-0CE1-41AA-9026-958E8371A6E8}" name="battery (5kWh)" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{DDC64AC4-F1BD-4A26-BCFE-D4E6EC0E8626}" name="spend (L/year)" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{22D432B1-2E97-4268-AE28-7011D267C9EE}" name="Table12" displayName="Table12" ref="S9:V14" totalsRowCount="1" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{22D432B1-2E97-4268-AE28-7011D267C9EE}" name="Table12" displayName="Table12" ref="S9:V14" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="S9:V13" xr:uid="{22D432B1-2E97-4268-AE28-7011D267C9EE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1479354B-279C-4ACF-9C3F-3EC4A0303C13}" name="watts" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="2" xr3:uid="{246F5AE9-5136-4ED0-864D-D8BE32BA8FDE}" name="iskr" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{80C45736-FCCF-41B6-8D09-A9E0A38EB586}" name="usd" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{5F7BFB88-BE36-4382-9A26-CAAC46509327}" name="usd/W" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="1" xr3:uid="{1479354B-279C-4ACF-9C3F-3EC4A0303C13}" name="watts" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{246F5AE9-5136-4ED0-864D-D8BE32BA8FDE}" name="iskr" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{80C45736-FCCF-41B6-8D09-A9E0A38EB586}" name="usd" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{5F7BFB88-BE36-4382-9A26-CAAC46509327}" name="usd/W" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <totalsRowFormula>AVERAGE(V12:V13,V10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -3740,230 +3823,254 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{91CDAD07-0DA6-4A81-9173-BC6C057E9DBB}" name="Table36" displayName="Table36" ref="G16:H19" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{91CDAD07-0DA6-4A81-9173-BC6C057E9DBB}" name="Table36" displayName="Table36" ref="G16:H19" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="G16:H19" xr:uid="{91CDAD07-0DA6-4A81-9173-BC6C057E9DBB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{933BB4DA-34D5-4E0D-B300-04364B1CD0F4}" name="battery (1kWh)" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{85BC1C6E-E635-4FA8-B23B-308B7A679CC5}" name="spend (L/year)" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{933BB4DA-34D5-4E0D-B300-04364B1CD0F4}" name="battery (1kWh)" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{85BC1C6E-E635-4FA8-B23B-308B7A679CC5}" name="spend (L/year)" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{9583D76B-EE78-45DF-A908-496C130010A3}" name="Table37" displayName="Table37" ref="J16:K19" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{9583D76B-EE78-45DF-A908-496C130010A3}" name="Table37" displayName="Table37" ref="J16:K19" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="J16:K19" xr:uid="{9583D76B-EE78-45DF-A908-496C130010A3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB4A8DB8-499E-45CE-87D2-815F062EA3B4}" name="battery (5kWh)" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{88871F28-18EB-457E-AD9A-44C14BDDE70D}" name="spend (L/year)" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{FB4A8DB8-499E-45CE-87D2-815F062EA3B4}" name="battery (5kWh)" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{88871F28-18EB-457E-AD9A-44C14BDDE70D}" name="spend (L/year)" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{A96C8C8B-E252-44CD-AC06-6522FDE3A2B0}" name="Table38" displayName="Table38" ref="J22:K25" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{A96C8C8B-E252-44CD-AC06-6522FDE3A2B0}" name="Table38" displayName="Table38" ref="J22:K25" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="J22:K25" xr:uid="{A96C8C8B-E252-44CD-AC06-6522FDE3A2B0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{005EBA96-C3EC-4626-9525-5255B9EEB86E}" name="battery (5kWh)" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{5F8A8F06-08FC-4D86-81DE-D4265EB1204B}" name="spend (L/year)" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{005EBA96-C3EC-4626-9525-5255B9EEB86E}" name="battery (5kWh)" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{5F8A8F06-08FC-4D86-81DE-D4265EB1204B}" name="spend (L/year)" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{C64542BE-FC1C-4711-AEEA-011E39F5A909}" name="Table39" displayName="Table39" ref="G22:H25" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{C64542BE-FC1C-4711-AEEA-011E39F5A909}" name="Table39" displayName="Table39" ref="G22:H25" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="G22:H25" xr:uid="{C64542BE-FC1C-4711-AEEA-011E39F5A909}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{67CE606B-B780-4679-BD3E-AAC4ED1FC98F}" name="battery (1kWh)" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{07F73E38-7CD6-4B88-984A-138ADA47AF2C}" name="spend (L/year)" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{67CE606B-B780-4679-BD3E-AAC4ED1FC98F}" name="battery (1kWh)" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{07F73E38-7CD6-4B88-984A-138ADA47AF2C}" name="spend (L/year)" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{5449A475-F95A-444C-9621-42CD06670867}" name="Table40" displayName="Table40" ref="G28:H31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{5449A475-F95A-444C-9621-42CD06670867}" name="Table40" displayName="Table40" ref="G28:H31" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="G28:H31" xr:uid="{5449A475-F95A-444C-9621-42CD06670867}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CD067D51-24A7-4A90-9FA8-C30508B94B1B}" name="battery (1kWh)" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A3F925B3-6651-4536-8F75-2AF13FA984A8}" name="spend (L/year)" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{CD067D51-24A7-4A90-9FA8-C30508B94B1B}" name="battery (1kWh)" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{A3F925B3-6651-4536-8F75-2AF13FA984A8}" name="spend (L/year)" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{DBF5F571-42CC-4804-8500-D556EFF33536}" name="Table41" displayName="Table41" ref="J28:K31" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{DBF5F571-42CC-4804-8500-D556EFF33536}" name="Table41" displayName="Table41" ref="J28:K31" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="J28:K31" xr:uid="{DBF5F571-42CC-4804-8500-D556EFF33536}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B6AE37FC-FC13-475A-AE1A-0F8780AFF6A1}" name="battery (5kWh)" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{8F102F62-E72F-42F5-B6AC-0A33BB90D0B8}" name="spend (L/year)" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{B6AE37FC-FC13-475A-AE1A-0F8780AFF6A1}" name="battery (5kWh)" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{8F102F62-E72F-42F5-B6AC-0A33BB90D0B8}" name="spend (L/year)" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{3D0C92FD-8FD2-4A99-AF99-814F9B4287DC}" name="Table42" displayName="Table42" ref="G34:H37" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{3D0C92FD-8FD2-4A99-AF99-814F9B4287DC}" name="Table42" displayName="Table42" ref="G34:H37" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="G34:H37" xr:uid="{3D0C92FD-8FD2-4A99-AF99-814F9B4287DC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72E8D911-C47D-4041-B4A3-E0E551B8FB38}" name="battery (1kWh)" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{448184DA-9C7B-4EFD-921C-8B2C1DC37493}" name="spend (L/year)" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{72E8D911-C47D-4041-B4A3-E0E551B8FB38}" name="battery (1kWh)" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{448184DA-9C7B-4EFD-921C-8B2C1DC37493}" name="spend (L/year)" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{5BDB2091-A889-461D-BC17-60927B08027E}" name="Table43" displayName="Table43" ref="J34:K37" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{5BDB2091-A889-461D-BC17-60927B08027E}" name="Table43" displayName="Table43" ref="J34:K37" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="J34:K37" xr:uid="{5BDB2091-A889-461D-BC17-60927B08027E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A517AFD8-FF83-45F5-8F81-91E09D7D653B}" name="battery (5kWh)" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{0980C4EB-DD3F-4FFF-894A-553BFCA76266}" name="spend (L/year)" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{A517AFD8-FF83-45F5-8F81-91E09D7D653B}" name="battery (5kWh)" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{0980C4EB-DD3F-4FFF-894A-553BFCA76266}" name="spend (L/year)" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{54CB4B84-1FB1-42AE-84A1-DADCE3AD0126}" name="Table44" displayName="Table44" ref="G40:H43" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{54CB4B84-1FB1-42AE-84A1-DADCE3AD0126}" name="Table44" displayName="Table44" ref="G40:H43" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="G40:H43" xr:uid="{54CB4B84-1FB1-42AE-84A1-DADCE3AD0126}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{30DBAD57-E1E8-424F-8E77-4D281287FDCB}" name="battery (1kWh)" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{6095BAA1-38FE-4443-B9FC-0C21D30631CE}" name="spend (L/year)" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{30DBAD57-E1E8-424F-8E77-4D281287FDCB}" name="battery (1kWh)" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{6095BAA1-38FE-4443-B9FC-0C21D30631CE}" name="spend (L/year)" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{635B4A52-752D-4F1D-A7A0-3DE7D9CC0CF2}" name="Table45" displayName="Table45" ref="J40:K43" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{635B4A52-752D-4F1D-A7A0-3DE7D9CC0CF2}" name="Table45" displayName="Table45" ref="J40:K43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="J40:K43" xr:uid="{635B4A52-752D-4F1D-A7A0-3DE7D9CC0CF2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AB135B3B-94B8-458A-99CE-B2EBB3DB6C2A}" name="battery (5kWh)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B8ECCBA7-CBFF-4F54-A66D-3DBADFD28F0D}" name="spend (L/year)" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{AB135B3B-94B8-458A-99CE-B2EBB3DB6C2A}" name="battery (5kWh)" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B8ECCBA7-CBFF-4F54-A66D-3DBADFD28F0D}" name="spend (L/year)" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36EAEFD6-49AF-40D5-9B90-AC276BCF49C2}" name="Table1" displayName="Table1" ref="C7:E10" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36EAEFD6-49AF-40D5-9B90-AC276BCF49C2}" name="Table1" displayName="Table1" ref="C7:E10" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="C7:E10" xr:uid="{36EAEFD6-49AF-40D5-9B90-AC276BCF49C2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{23747BD7-A89C-4056-8A53-AB5BA6E50620}" name="usage (kWh)" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{3C317834-4B3D-4CBD-BE7C-F17B17384423}" name="battery (kWh)" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{91C30AB3-CDF8-4FE9-AE4D-BAA7EAC98E88}" name="spend (L/year)" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{23747BD7-A89C-4056-8A53-AB5BA6E50620}" name="usage (kWh)" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{3C317834-4B3D-4CBD-BE7C-F17B17384423}" name="battery (kWh)" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{91C30AB3-CDF8-4FE9-AE4D-BAA7EAC98E88}" name="spend (L/year)" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{C7746E4C-5184-437E-B7E9-EBF9F486BA39}" name="Table11420" displayName="Table11420" ref="B10:D13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B10:D13" xr:uid="{C7746E4C-5184-437E-B7E9-EBF9F486BA39}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{64F881F8-FD27-4D87-A6F5-C1759100B71B}" name="Table10" displayName="Table10" ref="B46:D49" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B46:D49" xr:uid="{64F881F8-FD27-4D87-A6F5-C1759100B71B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3AC925A8-3475-478E-8FEE-D18F1981A88D}" name="usage (kWh)" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7B14A8EE-C0ED-4C46-90EB-F29699790BDC}" name="battery (kWh)" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{357BD70A-3E31-4280-931A-8944A976BA96}" name="spend (L/year)" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C4412BA3-97FC-4F8A-8FBA-95E825B9859F}" name="usage (kWh)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5569D5E9-DF47-4AD0-B960-634D8FA4851A}" name="setup (1kWh)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{225B05DD-1B8B-4F51-87F8-5850AD6603D5}" name="spend (L/year)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2CF0ED33-85F9-4A69-8E92-872459EFAFB6}" name="Table131521" displayName="Table131521" ref="F10:H13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="F10:H13" xr:uid="{2CF0ED33-85F9-4A69-8E92-872459EFAFB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8743A6B8-2CD3-4E0E-B3D5-C1A00FA764D8}" name="Table1017" displayName="Table1017" ref="B50:D53" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B50:D53" xr:uid="{8743A6B8-2CD3-4E0E-B3D5-C1A00FA764D8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2800D6B-5180-4733-8867-74F3F637258F}" name="usage (kWh)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{43FB9465-4308-495E-911F-C3F9D940CF68}" name="battery (kWh)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FF5C6EFB-A79A-4468-B47D-5A6603C4D5EF}" name="spend (L/year)" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{3B28E5AF-23A3-4EFD-AEC8-DCA8EA74BB06}" name="usage (kWh)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8D00CC28-F2B3-45C7-87B9-5F5A46ECC05A}" name="setup (5kWh)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{67E93469-34A9-4F6F-8D3B-1E483A4B3190}" name="spend (L/year)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A159A2B7-B7EE-43C3-9394-BDCBB865A550}" name="Table141622" displayName="Table141622" ref="J10:L13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{C7746E4C-5184-437E-B7E9-EBF9F486BA39}" name="Table11420" displayName="Table11420" ref="B10:D13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="B10:D13" xr:uid="{C7746E4C-5184-437E-B7E9-EBF9F486BA39}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3AC925A8-3475-478E-8FEE-D18F1981A88D}" name="usage (kWh)" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7B14A8EE-C0ED-4C46-90EB-F29699790BDC}" name="battery (kWh)" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{357BD70A-3E31-4280-931A-8944A976BA96}" name="spend (L/year)" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2CF0ED33-85F9-4A69-8E92-872459EFAFB6}" name="Table131521" displayName="Table131521" ref="F10:H13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="F10:H13" xr:uid="{2CF0ED33-85F9-4A69-8E92-872459EFAFB6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F2800D6B-5180-4733-8867-74F3F637258F}" name="usage (kWh)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{43FB9465-4308-495E-911F-C3F9D940CF68}" name="battery (kWh)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{FF5C6EFB-A79A-4468-B47D-5A6603C4D5EF}" name="spend (L/year)" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A159A2B7-B7EE-43C3-9394-BDCBB865A550}" name="Table141622" displayName="Table141622" ref="J10:L13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="J10:L13" xr:uid="{A159A2B7-B7EE-43C3-9394-BDCBB865A550}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EABCBC3C-0BAA-4A6D-8950-D31780DCD6E4}" name="usage (kWh)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1D4C96C1-38AD-4930-A71A-EF87E8EFDA8D}" name="battery (kWh)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{96EB049A-C5F2-4941-A405-59F9FA7F85CD}" name="spend (L/year)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EABCBC3C-0BAA-4A6D-8950-D31780DCD6E4}" name="usage (kWh)" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1D4C96C1-38AD-4930-A71A-EF87E8EFDA8D}" name="battery (kWh)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{96EB049A-C5F2-4941-A405-59F9FA7F85CD}" name="spend (L/year)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC008D0E-76C1-4C04-9427-A6A6FF0D1C69}" name="Table13" displayName="Table13" ref="G7:I10" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC008D0E-76C1-4C04-9427-A6A6FF0D1C69}" name="Table13" displayName="Table13" ref="G7:I10" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="G7:I10" xr:uid="{CC008D0E-76C1-4C04-9427-A6A6FF0D1C69}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C2CF2F1-E3BC-461C-9917-C3507014B3AB}" name="usage (kWh)" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{B77F239E-B397-425A-B36F-21F9BCC26B36}" name="battery (kWh)" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{6E14B5CA-D1F4-4D9F-8A63-E637BC5FD77F}" name="spend (L/year)" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{3C2CF2F1-E3BC-461C-9917-C3507014B3AB}" name="usage (kWh)" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{B77F239E-B397-425A-B36F-21F9BCC26B36}" name="battery (kWh)" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{6E14B5CA-D1F4-4D9F-8A63-E637BC5FD77F}" name="spend (L/year)" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5054FCDC-7593-4FCC-BB54-0B50899C68CF}" name="Table14" displayName="Table14" ref="K7:M10" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5054FCDC-7593-4FCC-BB54-0B50899C68CF}" name="Table14" displayName="Table14" ref="K7:M10" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="K7:M10" xr:uid="{5054FCDC-7593-4FCC-BB54-0B50899C68CF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{186E520A-2513-4F98-9801-D8FE6702C6BF}" name="usage (kWh)" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{BD4194D0-905A-4E44-A892-8ACA90AC0F6B}" name="battery (kWh)" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{BF36667F-F173-42A2-A4AA-26404F8515F7}" name="spend (L/year)" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{186E520A-2513-4F98-9801-D8FE6702C6BF}" name="usage (kWh)" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{BD4194D0-905A-4E44-A892-8ACA90AC0F6B}" name="battery (kWh)" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{BF36667F-F173-42A2-A4AA-26404F8515F7}" name="spend (L/year)" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{19AF79D7-FD69-4973-8297-75294888BAE0}" name="Table15" displayName="Table15" ref="C15:E18" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{19AF79D7-FD69-4973-8297-75294888BAE0}" name="Table15" displayName="Table15" ref="C15:E18" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="C15:E18" xr:uid="{19AF79D7-FD69-4973-8297-75294888BAE0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{720F5153-75F1-4E2F-B579-06E180A84065}" name="usage (kWh)" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{AE89AE0F-3CEE-4814-A10B-DA2CE83E0D60}" name="battery (kWh)" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{360FA650-6276-4A72-BAF6-36624A325683}" name="spend (L/year)" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{720F5153-75F1-4E2F-B579-06E180A84065}" name="usage (kWh)" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{AE89AE0F-3CEE-4814-A10B-DA2CE83E0D60}" name="battery (kWh)" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{360FA650-6276-4A72-BAF6-36624A325683}" name="spend (L/year)" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79E90632-CF7A-43D4-BE17-AF0AE8BBD333}" name="Table136" displayName="Table136" ref="G15:I18" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79E90632-CF7A-43D4-BE17-AF0AE8BBD333}" name="Table136" displayName="Table136" ref="G15:I18" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="G15:I18" xr:uid="{79E90632-CF7A-43D4-BE17-AF0AE8BBD333}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{85915FB9-5717-4828-A877-AE1315BC5FAB}" name="usage (kWh)" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{4285B1D3-1640-484F-B214-CE2767A05279}" name="battery (kWh)" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{64420640-B81E-4BB4-BF30-908A631722F3}" name="spend (L/year)" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{85915FB9-5717-4828-A877-AE1315BC5FAB}" name="usage (kWh)" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{4285B1D3-1640-484F-B214-CE2767A05279}" name="battery (kWh)" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{64420640-B81E-4BB4-BF30-908A631722F3}" name="spend (L/year)" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{259166F0-AB1A-4F9B-B847-8650DA5C2FA8}" name="Table147" displayName="Table147" ref="K15:M18" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{259166F0-AB1A-4F9B-B847-8650DA5C2FA8}" name="Table147" displayName="Table147" ref="K15:M18" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="K15:M18" xr:uid="{259166F0-AB1A-4F9B-B847-8650DA5C2FA8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{933EE29F-DD05-4072-9ADA-619919DA8215}" name="usage (kWh)" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{DDEC3C33-9FFC-48D7-BD40-6689B48F1F64}" name="battery (kWh)" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{C6864EA5-51BD-443B-856D-33278E429EB7}" name="spend (L/year)" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{933EE29F-DD05-4072-9ADA-619919DA8215}" name="usage (kWh)" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{DDEC3C33-9FFC-48D7-BD40-6689B48F1F64}" name="battery (kWh)" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{C6864EA5-51BD-443B-856D-33278E429EB7}" name="spend (L/year)" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98A73569-32EC-406B-9616-F89F7D94BA1C}" name="Table18" displayName="Table18" ref="C23:E26" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98A73569-32EC-406B-9616-F89F7D94BA1C}" name="Table18" displayName="Table18" ref="C23:E26" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="C23:E26" xr:uid="{98A73569-32EC-406B-9616-F89F7D94BA1C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DB40EC78-5B7A-4B54-B9ED-7346881D766B}" name="usage (kWh)" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{4F3D7B40-75D3-4C7A-A8A8-846AF08B4B52}" name="battery (kWh)" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{34AC4C8D-F868-4932-BB8C-39F6AF8DB6E7}" name="spend (L/year)" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{DB40EC78-5B7A-4B54-B9ED-7346881D766B}" name="usage (kWh)" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{4F3D7B40-75D3-4C7A-A8A8-846AF08B4B52}" name="battery (kWh)" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{34AC4C8D-F868-4932-BB8C-39F6AF8DB6E7}" name="spend (L/year)" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4747,7 +4854,7 @@
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5298,16 +5405,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C178353D-3C8E-4626-A558-929913D53C9B}">
-  <dimension ref="B2:K43"/>
+  <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -5996,8 +6103,189 @@
         <v>10</v>
       </c>
     </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>20</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>20</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>20</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B58:D58"/>
     <mergeCell ref="G39:K39"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="G15:K15"/>
@@ -6011,7 +6299,7 @@
     <mergeCell ref="G33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="18">
+  <tableParts count="20">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -6030,6 +6318,8 @@
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
